--- a/data/trans_orig/PRIV21_15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PRIV21_15-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de privacion socioeconómica en País Vasco</t>
+          <t>Índice de privacion socioeconómica en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PRIV21_15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PRIV21_15-Edad-trans_orig.xlsx
@@ -731,32 +731,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11454</t>
+          <t>11813</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>9102</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14744</t>
+          <t>14915</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -766,67 +766,67 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11858</t>
+          <t>11214</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>8380</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14863</t>
+          <t>14011</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12,57%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21,01%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>23027</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>19289</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>27316</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>13,35%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
           <t>18,91%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>14,31%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>23,7%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>23312</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>19297</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>27707</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>18,47%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>15,29%</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>21,95%</t>
         </is>
       </c>
     </row>
@@ -842,32 +842,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15133</t>
+          <t>15093</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12339</t>
+          <t>12233</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18321</t>
+          <t>18349</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -877,32 +877,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15696</t>
+          <t>14606</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12931</t>
+          <t>11789</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18669</t>
+          <t>17876</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -912,32 +912,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>30830</t>
+          <t>29699</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>26718</t>
+          <t>25764</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>35546</t>
+          <t>34346</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>23,78%</t>
         </is>
       </c>
     </row>
@@ -953,32 +953,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12459</t>
+          <t>16550</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9893</t>
+          <t>13183</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15349</t>
+          <t>20187</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -988,32 +988,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11586</t>
+          <t>10931</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8896</t>
+          <t>8423</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14403</t>
+          <t>13987</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1023,32 +1023,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>24046</t>
+          <t>27482</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>20427</t>
+          <t>23034</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>27978</t>
+          <t>32671</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>22,62%</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12452</t>
+          <t>14675</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9920</t>
+          <t>11514</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15403</t>
+          <t>18029</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1099,32 +1099,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11844</t>
+          <t>14146</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9185</t>
+          <t>11237</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14681</t>
+          <t>17407</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1134,32 +1134,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>24296</t>
+          <t>28821</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>20609</t>
+          <t>24642</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28002</t>
+          <t>33450</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>23,16%</t>
         </is>
       </c>
     </row>
@@ -1175,32 +1175,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11989</t>
+          <t>19622</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9712</t>
+          <t>15835</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14920</t>
+          <t>24214</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1210,32 +1210,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>15786</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9273</t>
+          <t>12617</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14956</t>
+          <t>19232</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1245,32 +1245,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>23717</t>
+          <t>35408</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>20339</t>
+          <t>30371</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>27698</t>
+          <t>40831</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>28,27%</t>
         </is>
       </c>
     </row>
@@ -1288,17 +1288,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1323,17 +1323,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>126201</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>126201</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>126201</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1403,32 +1403,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19708</t>
+          <t>20624</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16345</t>
+          <t>17111</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23388</t>
+          <t>24414</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1438,32 +1438,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14613</t>
+          <t>14877</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11677</t>
+          <t>12293</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18418</t>
+          <t>18043</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1473,32 +1473,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>34321</t>
+          <t>35502</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>30296</t>
+          <t>30909</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>39457</t>
+          <t>40102</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>27,62%</t>
         </is>
       </c>
     </row>
@@ -1514,32 +1514,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14336</t>
+          <t>14460</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11592</t>
+          <t>11522</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17553</t>
+          <t>17392</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1549,32 +1549,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11400</t>
+          <t>11632</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9108</t>
+          <t>9235</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14162</t>
+          <t>14432</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1584,32 +1584,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>25736</t>
+          <t>26092</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>21983</t>
+          <t>21939</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>29686</t>
+          <t>30011</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>20,67%</t>
         </is>
       </c>
     </row>
@@ -1625,32 +1625,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13573</t>
+          <t>16072</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10988</t>
+          <t>12556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16549</t>
+          <t>19510</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1660,32 +1660,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10812</t>
+          <t>12158</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8551</t>
+          <t>9772</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>13613</t>
+          <t>15542</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1695,32 +1695,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>24385</t>
+          <t>28230</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>20778</t>
+          <t>24108</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>28774</t>
+          <t>32693</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>22,52%</t>
         </is>
       </c>
     </row>
@@ -1736,32 +1736,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10914</t>
+          <t>11322</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8304</t>
+          <t>8709</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13886</t>
+          <t>14522</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1771,32 +1771,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16318</t>
+          <t>18162</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13264</t>
+          <t>15097</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19597</t>
+          <t>21858</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1806,32 +1806,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>27232</t>
+          <t>29484</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>23398</t>
+          <t>25265</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>31565</t>
+          <t>34214</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>23,57%</t>
         </is>
       </c>
     </row>
@@ -1847,32 +1847,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10998</t>
+          <t>13289</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8650</t>
+          <t>10446</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13820</t>
+          <t>16517</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1882,32 +1882,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10551</t>
+          <t>12575</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8190</t>
+          <t>9579</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>15746</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1917,32 +1917,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>21549</t>
+          <t>25864</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>17938</t>
+          <t>21746</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>25930</t>
+          <t>30432</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>20,96%</t>
         </is>
       </c>
     </row>
@@ -1960,17 +1960,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1995,17 +1995,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2075,32 +2075,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19625</t>
+          <t>22844</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16499</t>
+          <t>19081</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23193</t>
+          <t>27095</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2110,32 +2110,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23203</t>
+          <t>25975</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19084</t>
+          <t>21636</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>27034</t>
+          <t>29989</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2145,32 +2145,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>42828</t>
+          <t>48819</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>37745</t>
+          <t>43045</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>48078</t>
+          <t>54418</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>25,22%</t>
         </is>
       </c>
     </row>
@@ -2186,32 +2186,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21419</t>
+          <t>21018</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18367</t>
+          <t>17480</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25090</t>
+          <t>24669</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2221,32 +2221,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18594</t>
+          <t>18239</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15303</t>
+          <t>14879</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22640</t>
+          <t>21992</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>40013</t>
+          <t>39257</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>35590</t>
+          <t>34515</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>45370</t>
+          <t>43872</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>20,33%</t>
         </is>
       </c>
     </row>
@@ -2297,102 +2297,102 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>19092</t>
+          <t>18343</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>15381</t>
+          <t>14946</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22495</t>
+          <t>22053</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14,32%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>21,13%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19764</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16514</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>23986</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>21,52%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>38108</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>32422</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>43221</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>17,66%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
           <t>20,03%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>16,14%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>23,6%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>19465</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>15996</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>23347</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>19,71%</t>
-        </is>
-      </c>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>16,2%</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>23,64%</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>38557</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>33700</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>43594</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>19,87%</t>
-        </is>
-      </c>
-      <c r="V18" s="2" t="inlineStr">
-        <is>
-          <t>17,36%</t>
-        </is>
-      </c>
-      <c r="W18" s="2" t="inlineStr">
-        <is>
-          <t>22,46%</t>
         </is>
       </c>
     </row>
@@ -2408,32 +2408,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18122</t>
+          <t>21243</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15204</t>
+          <t>17802</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21512</t>
+          <t>25384</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19339</t>
+          <t>21535</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16194</t>
+          <t>18187</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>22829</t>
+          <t>25641</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>37461</t>
+          <t>42778</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>32916</t>
+          <t>37792</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>42609</t>
+          <t>48787</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>22,61%</t>
         </is>
       </c>
     </row>
@@ -2519,32 +2519,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>17062</t>
+          <t>20905</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13777</t>
+          <t>17023</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20563</t>
+          <t>24876</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2554,32 +2554,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>18160</t>
+          <t>25944</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>15019</t>
+          <t>21931</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>21917</t>
+          <t>30601</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>35222</t>
+          <t>46849</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>30470</t>
+          <t>41453</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>40084</t>
+          <t>53722</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>24,89%</t>
         </is>
       </c>
     </row>
@@ -2632,17 +2632,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2667,17 +2667,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2702,17 +2702,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>194080</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>194080</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>194080</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2747,32 +2747,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>31048</t>
+          <t>30682</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>27013</t>
+          <t>26761</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>35466</t>
+          <t>35267</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2782,32 +2782,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26458</t>
+          <t>27524</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>22648</t>
+          <t>23173</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>30881</t>
+          <t>31817</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>57506</t>
+          <t>58206</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>51095</t>
+          <t>51991</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>63554</t>
+          <t>64629</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>21,63%</t>
         </is>
       </c>
     </row>
@@ -2858,32 +2858,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>31581</t>
+          <t>29141</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>27350</t>
+          <t>25279</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>36095</t>
+          <t>33405</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2893,32 +2893,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>28845</t>
+          <t>28626</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>25015</t>
+          <t>24663</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>33172</t>
+          <t>32526</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2928,32 +2928,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>60427</t>
+          <t>57768</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>54384</t>
+          <t>52088</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>66881</t>
+          <t>64004</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>21,42%</t>
         </is>
       </c>
     </row>
@@ -2969,32 +2969,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>25667</t>
+          <t>24592</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>21939</t>
+          <t>20597</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>29660</t>
+          <t>28965</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3004,32 +3004,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>27665</t>
+          <t>27136</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>23605</t>
+          <t>22994</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>32148</t>
+          <t>31553</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3039,32 +3039,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>53332</t>
+          <t>51728</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>47590</t>
+          <t>45938</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>59342</t>
+          <t>58516</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>19,58%</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3080,17 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>27185</t>
+          <t>28312</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>23018</t>
+          <t>24360</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>31380</t>
+          <t>32616</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3115,32 +3115,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>26969</t>
+          <t>29922</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>23477</t>
+          <t>25759</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>31125</t>
+          <t>34830</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3150,32 +3150,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>54154</t>
+          <t>58234</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>48554</t>
+          <t>52493</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>60023</t>
+          <t>65690</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>21,99%</t>
         </is>
       </c>
     </row>
@@ -3191,32 +3191,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24455</t>
+          <t>32990</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>20777</t>
+          <t>28614</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>28579</t>
+          <t>38002</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3226,32 +3226,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>28746</t>
+          <t>39863</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>24664</t>
+          <t>34591</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>33092</t>
+          <t>45515</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>29,73%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3261,32 +3261,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>53201</t>
+          <t>72853</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>47872</t>
+          <t>66101</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>59250</t>
+          <t>80791</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>27,04%</t>
         </is>
       </c>
     </row>
@@ -3304,17 +3304,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3339,17 +3339,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3374,17 +3374,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>278621</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>278621</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>278621</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3419,32 +3419,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>24525</t>
+          <t>23180</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>20468</t>
+          <t>19482</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>28863</t>
+          <t>27171</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3454,32 +3454,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>31581</t>
+          <t>30239</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>26937</t>
+          <t>26265</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>36240</t>
+          <t>34821</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3489,32 +3489,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>56106</t>
+          <t>53420</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>50315</t>
+          <t>48415</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>63067</t>
+          <t>60002</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>21,2%</t>
         </is>
       </c>
     </row>
@@ -3530,32 +3530,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>29449</t>
+          <t>25355</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>25259</t>
+          <t>22251</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>34242</t>
+          <t>30328</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3565,32 +3565,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>33819</t>
+          <t>29628</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>29299</t>
+          <t>25563</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>38284</t>
+          <t>33523</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3600,32 +3600,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>63268</t>
+          <t>54983</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>57662</t>
+          <t>49706</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>69442</t>
+          <t>60963</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>21,54%</t>
         </is>
       </c>
     </row>
@@ -3641,32 +3641,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>26293</t>
+          <t>24669</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>22002</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>30778</t>
+          <t>28760</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3676,32 +3676,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>26444</t>
+          <t>27533</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>22488</t>
+          <t>23122</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>31125</t>
+          <t>31533</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3711,32 +3711,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>52737</t>
+          <t>52202</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>46715</t>
+          <t>46805</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>58973</t>
+          <t>58348</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>20,61%</t>
         </is>
       </c>
     </row>
@@ -3752,32 +3752,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>24540</t>
+          <t>26245</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>20596</t>
+          <t>22379</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>28695</t>
+          <t>30663</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3787,67 +3787,67 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>30567</t>
+          <t>32204</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>26238</t>
+          <t>27948</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>34671</t>
+          <t>37315</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
+          <t>21,07%</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>18,28%</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>24,41%</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>58449</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>52765</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>64572</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
           <t>20,65%</t>
         </is>
       </c>
-      <c r="O31" s="2" t="inlineStr">
-        <is>
-          <t>17,73%</t>
-        </is>
-      </c>
-      <c r="P31" s="2" t="inlineStr">
-        <is>
-          <t>23,42%</t>
-        </is>
-      </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>328</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>55107</t>
-        </is>
-      </c>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>49206</t>
-        </is>
-      </c>
-      <c r="T31" s="2" t="inlineStr">
-        <is>
-          <t>61430</t>
-        </is>
-      </c>
-      <c r="U31" s="2" t="inlineStr">
-        <is>
-          <t>20,03%</t>
-        </is>
-      </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>22,81%</t>
         </is>
       </c>
     </row>
@@ -3863,32 +3863,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>22244</t>
+          <t>30730</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>18629</t>
+          <t>25806</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>26174</t>
+          <t>35289</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3898,32 +3898,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>25612</t>
+          <t>33266</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>22277</t>
+          <t>28409</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>30328</t>
+          <t>38228</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3933,32 +3933,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>47856</t>
+          <t>63997</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>57890</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>53595</t>
+          <t>71113</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>25,12%</t>
         </is>
       </c>
     </row>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4011,17 +4011,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4046,17 +4046,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>275074</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>275074</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>275074</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4091,32 +4091,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>19793</t>
+          <t>21407</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>16579</t>
+          <t>18174</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>23519</t>
+          <t>24766</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4126,32 +4126,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>21818</t>
+          <t>21188</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>18039</t>
+          <t>17687</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>25472</t>
+          <t>24990</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4161,32 +4161,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>41611</t>
+          <t>42595</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>36582</t>
+          <t>37778</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>47050</t>
+          <t>48012</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>21,65%</t>
         </is>
       </c>
     </row>
@@ -4202,32 +4202,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>25132</t>
+          <t>21213</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>21000</t>
+          <t>18169</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>29183</t>
+          <t>24835</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4237,32 +4237,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>27736</t>
+          <t>25103</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>23844</t>
+          <t>21544</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>31922</t>
+          <t>28957</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4272,32 +4272,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>52868</t>
+          <t>46315</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>47384</t>
+          <t>41183</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>58421</t>
+          <t>51048</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>23,01%</t>
         </is>
       </c>
     </row>
@@ -4313,32 +4313,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>22920</t>
+          <t>21807</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>19268</t>
+          <t>18618</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>26891</t>
+          <t>25995</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4348,32 +4348,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>22354</t>
+          <t>21665</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>18758</t>
+          <t>18310</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>26466</t>
+          <t>25303</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4383,32 +4383,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>45274</t>
+          <t>43472</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>40169</t>
+          <t>38615</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>50847</t>
+          <t>48498</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>21,87%</t>
         </is>
       </c>
     </row>
@@ -4424,32 +4424,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>23935</t>
+          <t>21236</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>20339</t>
+          <t>17991</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>27901</t>
+          <t>24923</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4459,32 +4459,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>23434</t>
+          <t>23733</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>19916</t>
+          <t>20205</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>27466</t>
+          <t>27536</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4494,32 +4494,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>47369</t>
+          <t>44969</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>42265</t>
+          <t>39911</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>52981</t>
+          <t>49999</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>22,54%</t>
         </is>
       </c>
     </row>
@@ -4535,32 +4535,32 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>16536</t>
+          <t>19731</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>13630</t>
+          <t>16425</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>19921</t>
+          <t>23453</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4570,32 +4570,32 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>19965</t>
+          <t>24722</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>16913</t>
+          <t>21082</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>23725</t>
+          <t>28916</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4605,32 +4605,32 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>36501</t>
+          <t>44453</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>32011</t>
+          <t>39413</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>41334</t>
+          <t>50401</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>22,72%</t>
         </is>
       </c>
     </row>
@@ -4648,17 +4648,17 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -4683,17 +4683,17 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -4718,17 +4718,17 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>223623</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>223623</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>223623</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4763,32 +4763,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>23881</t>
+          <t>19784</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>20052</t>
+          <t>16957</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>27673</t>
+          <t>23065</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4798,32 +4798,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>31869</t>
+          <t>28578</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>27597</t>
+          <t>24691</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>36292</t>
+          <t>32612</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4833,32 +4833,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>55749</t>
+          <t>48362</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>50246</t>
+          <t>43144</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>61194</t>
+          <t>53676</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>24,21%</t>
         </is>
       </c>
     </row>
@@ -4874,32 +4874,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>19090</t>
+          <t>15859</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>15610</t>
+          <t>13042</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>22840</t>
+          <t>18816</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4909,32 +4909,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>29598</t>
+          <t>27088</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>25307</t>
+          <t>23636</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>33574</t>
+          <t>31370</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -4944,32 +4944,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>48688</t>
+          <t>42948</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>44026</t>
+          <t>38124</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>55395</t>
+          <t>48072</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>21,68%</t>
         </is>
       </c>
     </row>
@@ -4985,32 +4985,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>16832</t>
+          <t>14153</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>13718</t>
+          <t>11604</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>20325</t>
+          <t>17533</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5020,32 +5020,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>29216</t>
+          <t>25996</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>25343</t>
+          <t>22342</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>33888</t>
+          <t>29785</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5055,32 +5055,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>46048</t>
+          <t>40149</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>40817</t>
+          <t>35550</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>51314</t>
+          <t>45279</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>20,42%</t>
         </is>
       </c>
     </row>
@@ -5096,32 +5096,32 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>17502</t>
+          <t>18554</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>14612</t>
+          <t>15641</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>21478</t>
+          <t>22140</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5131,32 +5131,32 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>20065</t>
+          <t>23986</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>16750</t>
+          <t>20272</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>24114</t>
+          <t>27837</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5166,32 +5166,32 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>37567</t>
+          <t>42540</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>33343</t>
+          <t>37380</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>42782</t>
+          <t>47375</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>21,37%</t>
         </is>
       </c>
     </row>
@@ -5207,32 +5207,32 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>19051</t>
+          <t>20873</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>15711</t>
+          <t>17602</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>22577</t>
+          <t>24722</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5242,32 +5242,32 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>23301</t>
+          <t>26827</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>19844</t>
+          <t>23068</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>26921</t>
+          <t>30669</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5277,32 +5277,32 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>42352</t>
+          <t>47700</t>
         </is>
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>37213</t>
+          <t>42241</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>47780</t>
+          <t>52929</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>23,87%</t>
         </is>
       </c>
     </row>
@@ -5320,17 +5320,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5355,17 +5355,17 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -5390,17 +5390,17 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>230404</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>230404</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>230404</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
@@ -5435,32 +5435,32 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>150032</t>
+          <t>150334</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>140781</t>
+          <t>140173</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>159245</t>
+          <t>160406</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -5470,32 +5470,32 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>161400</t>
+          <t>159596</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>151160</t>
+          <t>149429</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>171151</t>
+          <t>170278</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -5505,32 +5505,32 @@
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>311432</t>
+          <t>309930</t>
         </is>
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>298048</t>
+          <t>295372</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>327602</t>
+          <t>323849</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>21,16%</t>
         </is>
       </c>
     </row>
@@ -5546,32 +5546,32 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>156141</t>
+          <t>142139</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>146503</t>
+          <t>133508</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>166555</t>
+          <t>151935</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -5581,32 +5581,32 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>165689</t>
+          <t>154923</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>155007</t>
+          <t>145151</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>175993</t>
+          <t>164735</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -5616,32 +5616,32 @@
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>321830</t>
+          <t>297062</t>
         </is>
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>308674</t>
+          <t>284414</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>336040</t>
+          <t>311062</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>20,32%</t>
         </is>
       </c>
     </row>
@@ -5657,32 +5657,32 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>136836</t>
+          <t>136188</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>127783</t>
+          <t>127154</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>147258</t>
+          <t>145127</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -5692,32 +5692,32 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>147543</t>
+          <t>145183</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>138383</t>
+          <t>136892</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>158044</t>
+          <t>156172</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -5727,32 +5727,32 @@
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>284379</t>
+          <t>281371</t>
         </is>
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>271623</t>
+          <t>268547</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>298017</t>
+          <t>295247</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>19,29%</t>
         </is>
       </c>
     </row>
@@ -5768,32 +5768,32 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>134651</t>
+          <t>141587</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>125751</t>
+          <t>132124</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>144874</t>
+          <t>151018</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -5803,32 +5803,32 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>148536</t>
+          <t>163687</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>138964</t>
+          <t>153480</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>158324</t>
+          <t>173437</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -5838,32 +5838,32 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>283187</t>
+          <t>305274</t>
         </is>
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>270571</t>
+          <t>290553</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>296008</t>
+          <t>318714</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>20,82%</t>
         </is>
       </c>
     </row>
@@ -5879,32 +5879,32 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>122334</t>
+          <t>158140</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>114346</t>
+          <t>148771</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>131014</t>
+          <t>169176</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -5914,32 +5914,32 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>138064</t>
+          <t>178984</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>128841</t>
+          <t>168740</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>146885</t>
+          <t>189106</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -5949,32 +5949,32 @@
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>260398</t>
+          <t>337124</t>
         </is>
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>248533</t>
+          <t>322938</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>274044</t>
+          <t>351598</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>22,97%</t>
         </is>
       </c>
     </row>
@@ -5992,17 +5992,17 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -6027,17 +6027,17 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -6062,17 +6062,17 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>1461226</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>1461226</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>1461226</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
